--- a/data/georgia_census/shida-qartli/xashuri/healthcare_staff.xlsx
+++ b/data/georgia_census/shida-qartli/xashuri/healthcare_staff.xlsx
@@ -1371,13 +1371,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C478847-866B-4623-8C31-747A8B88777F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EB4BBF3-820F-404E-A925-29D86DFE6116}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148BF786-3492-4CAC-A737-9207C891EEB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EEE2BD1-774B-43A1-B7BC-A10F02CB1F56}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57CD51F9-1DEE-4786-BABC-EF98164CB2D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BBF28C7-C760-4B84-B80E-151A18CC4813}"/>
 </file>